--- a/QuanLyDuAn/Sprint planing.xlsx
+++ b/QuanLyDuAn/Sprint planing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DongTrieu_Nam3\CNPM_Giao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6844E6-EFA5-4A96-BADB-BDAA4DE48EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF16C9E8-BE63-44C5-A87C-5A5D5AC28331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P2" activeCellId="1" sqref="H9 P2"/>
     </sheetView>
   </sheetViews>
